--- a/example/game_01_minirpg/stages.xlsx
+++ b/example/game_01_minirpg/stages.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,30 +437,39 @@
         <v>Boss Skill</v>
       </c>
       <c r="L1" t="str">
+        <v>Boss Enemy</v>
+      </c>
+      <c r="M1" t="str">
         <v>Unlock Hero</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>Reward Item 1</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>Reward Qty 1</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>Reward Item 2</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>Reward Qty 2</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>Reward Item 3</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>Reward Qty 3</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>First Clear Skill</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
+        <v>Prerequisite Stage</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Backdrop</v>
+      </c>
+      <c r="W1" t="str">
         <v>Narrative</v>
       </c>
     </row>
@@ -505,24 +514,33 @@
         <v>tid</v>
       </c>
       <c r="N2" t="str">
+        <v>tid</v>
+      </c>
+      <c r="O2" t="str">
         <v>uint</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <v>tid</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <v>uint</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="R2" t="str">
         <v>tid</v>
       </c>
-      <c r="R2" t="str">
+      <c r="S2" t="str">
         <v>uint</v>
       </c>
-      <c r="S2" t="str">
+      <c r="T2" t="str">
         <v>tid</v>
       </c>
-      <c r="T2" t="str">
+      <c r="U2" t="str">
+        <v>tid</v>
+      </c>
+      <c r="V2" t="str">
+        <v>string</v>
+      </c>
+      <c r="W2" t="str">
         <v>string</v>
       </c>
     </row>
@@ -561,30 +579,39 @@
         <v>bossSkill</v>
       </c>
       <c r="L3" t="str">
+        <v>bossEnemy</v>
+      </c>
+      <c r="M3" t="str">
         <v>unlockHero</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <v>rewardItem1</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <v>rewardQty1</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <v>rewardItem2</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <v>rewardQty2</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3" t="str">
         <v>rewardItem3</v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <v>rewardQty3</v>
       </c>
-      <c r="S3" t="str">
+      <c r="T3" t="str">
         <v>firstClearSkill</v>
       </c>
-      <c r="T3" t="str">
+      <c r="U3" t="str">
+        <v>prerequisiteStage</v>
+      </c>
+      <c r="V3" t="str">
+        <v>backdrop</v>
+      </c>
+      <c r="W3" t="str">
         <v>narrative</v>
       </c>
     </row>
@@ -623,30 +650,39 @@
         <v>20005001</v>
       </c>
       <c r="L4">
+        <v>50000001</v>
+      </c>
+      <c r="M4">
         <v>10000001</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>30000003</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>30000004</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
       <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>30000001</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
       <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
         <v>20001001</v>
       </c>
-      <c r="T4" t="str">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="str">
+        <v>https://images.unsplash.com/photo-1457269449834-928af64c684d?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</v>
+      </c>
+      <c r="W4" t="str">
         <v>沿着冰霜峡谷一路前行，驱逐盘踞的掠夺者。</v>
       </c>
     </row>
@@ -685,30 +721,39 @@
         <v>20004001</v>
       </c>
       <c r="L5">
+        <v>50000002</v>
+      </c>
+      <c r="M5">
         <v>10000002</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>30000001</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
       <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>30000005</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
       <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>30000003</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>20001002</v>
       </c>
-      <c r="T5" t="str">
+      <c r="U5">
+        <v>40000001</v>
+      </c>
+      <c r="V5" t="str">
+        <v>https://images.unsplash.com/photo-1519681393784-d120267933ba?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</v>
+      </c>
+      <c r="W5" t="str">
         <v>深处火山的城堡中，守卫者掌控着熔岩机关。</v>
       </c>
     </row>
@@ -747,30 +792,39 @@
         <v>20003001</v>
       </c>
       <c r="L6">
+        <v>50000003</v>
+      </c>
+      <c r="M6">
         <v>10000003</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>30000002</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>30000003</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
       <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>30000004</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
       <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
         <v>20005001</v>
       </c>
-      <c r="T6" t="str">
+      <c r="U6">
+        <v>40000002</v>
+      </c>
+      <c r="V6" t="str">
+        <v>https://images.unsplash.com/photo-1441974231531-c6227db76b6e?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</v>
+      </c>
+      <c r="W6" t="str">
         <v>被湖水吞噬的古代都市，仍散发着微弱魔力。</v>
       </c>
     </row>
@@ -809,36 +863,45 @@
         <v>20006001</v>
       </c>
       <c r="L7">
+        <v>50010001</v>
+      </c>
+      <c r="M7">
         <v>10000004</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>30000005</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>30000006</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
       <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>30000004</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
       <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
         <v>20008001</v>
       </c>
-      <c r="T7" t="str">
+      <c r="U7">
+        <v>40000003</v>
+      </c>
+      <c r="V7" t="str">
+        <v>https://images.unsplash.com/photo-1469474968028-56623f02e42e?auto=format&amp;fit=crop&amp;w=1200&amp;q=80</v>
+      </c>
+      <c r="W7" t="str">
         <v>月蚀之夜开启的秘境，月影刺客在此接受试炼。</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W7"/>
   </ignoredErrors>
 </worksheet>
 </file>